--- a/说明文档/中控MCU软件自测报告—V2.2主板.xlsx
+++ b/说明文档/中控MCU软件自测报告—V2.2主板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CD10F-FAB2-4CFC-9439-BD37CF004AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B0536-5F0C-407A-97DE-697AE354508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="923" yWindow="817" windowWidth="21210" windowHeight="13418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="923" yWindow="345" windowWidth="21210" windowHeight="13418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试报告" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="212">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -175,9 +175,6 @@
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>实际结果</t>
@@ -807,10 +804,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模拟测试为固定间隔时间发送，无法判断接收完成后再发送下一帧，故与实际情况有所偏差，实际情况要比测试好一些</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Modbus 协议 寄存器读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -856,6 +849,30 @@
   </si>
   <si>
     <t>正确率100%，建议app将发送速度控制在200ms以上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单相类型电表读取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取总电能以及功率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA 04 00 14 00 08 A8 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取电能1456.1kw，功率0.1kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取电能错误 145.6kw，偶尔可以读到正确值1456.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据协议正/反向总电能仅三相有效,单相无需读取该值,原程序读取正向电能覆盖总电能导致数值出错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1586,7 +1603,7 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="40">
     <dxf>
       <font>
         <b val="0"/>
@@ -1761,46 +1778,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2267,14 +2244,14 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight18">
     <tableStyle name="通讯簿" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2877,19 +2854,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:K135" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
-  <autoFilter ref="B8:K135" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="结果" totalsRowLabel="汇总" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试项目" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="细分项目" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="列1" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="责任人" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{231195DF-A3F0-459F-A72D-0DBA75C0CAF7}" name="备注" dataDxfId="14" totalsRowDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:J135" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31">
+  <autoFilter ref="B8:J135" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="结果" totalsRowLabel="汇总" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试项目" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="细分项目" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="备注" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="责任人" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="通讯簿" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3148,8 +3124,8 @@
   </sheetPr>
   <dimension ref="A1:XFB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -3161,10 +3137,10 @@
     <col min="5" max="5" width="30.5859375" style="35" customWidth="1"/>
     <col min="6" max="6" width="18.52734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="24.234375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.29296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.234375" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.52734375" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.87890625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.76171875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="28.76171875" style="7" customWidth="1"/>
     <col min="12" max="12" width="7.17578125" style="7" customWidth="1"/>
     <col min="13" max="13" width="8.46875" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.5859375" style="7" customWidth="1"/>
@@ -3182,7 +3158,7 @@
     <col min="16383" max="16384" width="24.29296875" style="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:19" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3201,13 +3177,13 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="26.65" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:19" ht="26.65" x14ac:dyDescent="0.8">
       <c r="A2" s="2"/>
       <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="25">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="37"/>
@@ -3217,7 +3193,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="26.65" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:19" ht="26.65" x14ac:dyDescent="0.8">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>29</v>
@@ -3234,7 +3210,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="26.65" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -3249,7 +3225,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="26.65" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>26</v>
@@ -3264,14 +3240,14 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="26.65" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" ht="26.65" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="12">
         <f>COUNTIFS(待办事项列表[结果],"=3")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3279,7 +3255,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="26.65" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:19" ht="26.65" x14ac:dyDescent="0.8">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -3287,7 +3263,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" s="18" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.5">
       <c r="A8" s="17"/>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -3305,10 +3281,10 @@
         <v>34</v>
       </c>
       <c r="G8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>25</v>
@@ -3316,17 +3292,14 @@
       <c r="J8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
@@ -3334,19 +3307,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="19">
@@ -3355,27 +3328,26 @@
       <c r="J9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.5">
       <c r="A10" s="44"/>
       <c r="B10" s="28">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="19">
@@ -3384,27 +3356,26 @@
       <c r="J10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.5">
       <c r="A11" s="44"/>
       <c r="B11" s="28">
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="19">
@@ -3413,26 +3384,25 @@
       <c r="J11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B12" s="29">
         <v>2</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="19">
@@ -3441,26 +3411,25 @@
       <c r="J12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B13" s="28">
         <v>2</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="19">
@@ -3469,26 +3438,25 @@
       <c r="J13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B14" s="28">
         <v>2</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="19">
@@ -3497,26 +3465,25 @@
       <c r="J14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.5">
       <c r="B15" s="29">
         <v>2</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="19">
@@ -3525,24 +3492,23 @@
       <c r="J15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.5">
       <c r="B16" s="29">
         <v>2</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="19">
@@ -3551,26 +3517,25 @@
       <c r="J16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B17" s="29">
         <v>2</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="19">
@@ -3579,26 +3544,25 @@
       <c r="J17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B18" s="29">
         <v>2</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="19">
@@ -3607,26 +3571,25 @@
       <c r="J18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B19" s="29">
         <v>2</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="19">
@@ -3635,26 +3598,25 @@
       <c r="J19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.5">
       <c r="B20" s="29">
         <v>2</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="19">
@@ -3663,26 +3625,25 @@
       <c r="J20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B21" s="29">
         <v>2</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="19">
@@ -3691,26 +3652,25 @@
       <c r="J21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B22" s="29">
         <v>2</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="19">
@@ -3719,26 +3679,25 @@
       <c r="J22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="32"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B23" s="29">
         <v>2</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="19">
@@ -3747,24 +3706,23 @@
       <c r="J23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="32"/>
-    </row>
-    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="19">
@@ -3773,29 +3731,28 @@
       <c r="J24" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="2:10" ht="45" x14ac:dyDescent="0.5">
       <c r="B25" s="29">
         <v>1</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="H25" s="32" t="s">
         <v>162</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="I25" s="19">
         <v>45412</v>
@@ -3803,24 +3760,23 @@
       <c r="J25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B26" s="29">
         <v>1</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="19">
@@ -3829,24 +3785,23 @@
       <c r="J26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B27" s="29">
         <v>1</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="19">
@@ -3855,24 +3810,23 @@
       <c r="J27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B28" s="29">
         <v>1</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="19">
@@ -3881,24 +3835,23 @@
       <c r="J28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B29" s="29">
         <v>1</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="19">
@@ -3907,26 +3860,25 @@
       <c r="J29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B30" s="29">
         <v>2</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="19">
@@ -3935,24 +3887,23 @@
       <c r="J30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B31" s="29">
         <v>2</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="19">
@@ -3961,24 +3912,23 @@
       <c r="J31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B32" s="29">
         <v>2</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="19">
@@ -3987,24 +3937,23 @@
       <c r="J32" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B33" s="29">
         <v>2</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="19">
@@ -4013,24 +3962,23 @@
       <c r="J33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="32"/>
-    </row>
-    <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B34" s="29">
         <v>2</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="19">
@@ -4039,26 +3987,25 @@
       <c r="J34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="35" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B35" s="29">
         <v>2</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="19">
@@ -4067,24 +4014,23 @@
       <c r="J35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="32"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B36" s="29">
         <v>2</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="19">
@@ -4093,24 +4039,23 @@
       <c r="J36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="32"/>
-    </row>
-    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="37" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B37" s="29">
         <v>2</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="19">
@@ -4119,24 +4064,23 @@
       <c r="J37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="38" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B38" s="29">
         <v>2</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="19">
@@ -4145,24 +4089,23 @@
       <c r="J38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="32"/>
-    </row>
-    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+    </row>
+    <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B39" s="29">
         <v>2</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="19">
@@ -4171,29 +4114,28 @@
       <c r="J39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="32"/>
-    </row>
-    <row r="40" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.5">
       <c r="B40" s="29">
         <v>1</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>175</v>
-      </c>
       <c r="H40" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I40" s="19">
         <v>45412</v>
@@ -4201,24 +4143,23 @@
       <c r="J40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="41" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B41" s="29">
         <v>1</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="19">
@@ -4227,24 +4168,23 @@
       <c r="J41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="32"/>
-    </row>
-    <row r="42" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B42" s="29">
         <v>1</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="19">
@@ -4253,24 +4193,23 @@
       <c r="J42" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="32"/>
-    </row>
-    <row r="43" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="43" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B43" s="29">
         <v>1</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="19">
@@ -4279,24 +4218,23 @@
       <c r="J43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+    </row>
+    <row r="44" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B44" s="29">
         <v>1</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="19">
@@ -4305,161 +4243,180 @@
       <c r="J44" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B45" s="41">
         <v>1</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="38"/>
-    </row>
-    <row r="46" spans="2:11" ht="60" x14ac:dyDescent="0.5">
+      <c r="J45" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B46" s="41">
         <v>1</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="38"/>
-    </row>
-    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.5">
+      <c r="J46" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B47" s="41">
         <v>1</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="38"/>
-    </row>
-    <row r="48" spans="2:11" ht="45" x14ac:dyDescent="0.5">
+      <c r="J47" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="30" x14ac:dyDescent="0.5">
       <c r="B48" s="41">
         <v>2</v>
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="38"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="J48" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B49" s="41">
         <v>2</v>
       </c>
       <c r="C49" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>198</v>
-      </c>
       <c r="E49" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="38"/>
-    </row>
-    <row r="50" spans="2:11" ht="60" x14ac:dyDescent="0.5">
+      <c r="J49" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="45" x14ac:dyDescent="0.5">
       <c r="B50" s="41">
         <v>2</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="38"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="J50" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B51" s="41">
         <v>2</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="38"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="J51" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="60" x14ac:dyDescent="0.5">
+      <c r="B52" s="41">
+        <v>3</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>211</v>
+      </c>
       <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="J52" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
       <c r="D53" s="38"/>
@@ -4469,9 +4426,8 @@
       <c r="H53" s="38"/>
       <c r="I53" s="39"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="38"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
       <c r="D54" s="38"/>
@@ -4481,9 +4437,8 @@
       <c r="H54" s="38"/>
       <c r="I54" s="39"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="38"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
       <c r="D55" s="38"/>
@@ -4493,9 +4448,8 @@
       <c r="H55" s="38"/>
       <c r="I55" s="39"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="38"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B56" s="41"/>
       <c r="C56" s="42"/>
       <c r="D56" s="38"/>
@@ -4505,9 +4459,8 @@
       <c r="H56" s="38"/>
       <c r="I56" s="39"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="38"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
       <c r="D57" s="38"/>
@@ -4517,9 +4470,8 @@
       <c r="H57" s="38"/>
       <c r="I57" s="39"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="38"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B58" s="41"/>
       <c r="C58" s="42"/>
       <c r="D58" s="38"/>
@@ -4529,9 +4481,8 @@
       <c r="H58" s="38"/>
       <c r="I58" s="39"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="38"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
       <c r="D59" s="38"/>
@@ -4541,9 +4492,8 @@
       <c r="H59" s="38"/>
       <c r="I59" s="39"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="38"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
       <c r="D60" s="38"/>
@@ -4553,9 +4503,8 @@
       <c r="H60" s="38"/>
       <c r="I60" s="39"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="38"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
       <c r="D61" s="38"/>
@@ -4565,9 +4514,8 @@
       <c r="H61" s="38"/>
       <c r="I61" s="39"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="38"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
       <c r="D62" s="38"/>
@@ -4577,9 +4525,8 @@
       <c r="H62" s="38"/>
       <c r="I62" s="39"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="38"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
       <c r="D63" s="38"/>
@@ -4589,9 +4536,8 @@
       <c r="H63" s="38"/>
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="38"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
       <c r="D64" s="38"/>
@@ -4601,9 +4547,8 @@
       <c r="H64" s="38"/>
       <c r="I64" s="39"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="38"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
       <c r="D65" s="38"/>
@@ -4613,9 +4558,8 @@
       <c r="H65" s="38"/>
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="38"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
       <c r="D66" s="38"/>
@@ -4625,9 +4569,8 @@
       <c r="H66" s="38"/>
       <c r="I66" s="39"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="38"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
       <c r="D67" s="38"/>
@@ -4637,9 +4580,8 @@
       <c r="H67" s="38"/>
       <c r="I67" s="39"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="38"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
       <c r="D68" s="38"/>
@@ -4649,9 +4591,8 @@
       <c r="H68" s="38"/>
       <c r="I68" s="39"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="38"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
       <c r="D69" s="38"/>
@@ -4661,9 +4602,8 @@
       <c r="H69" s="38"/>
       <c r="I69" s="39"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="38"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B70" s="41"/>
       <c r="C70" s="42"/>
       <c r="D70" s="38"/>
@@ -4673,9 +4613,8 @@
       <c r="H70" s="38"/>
       <c r="I70" s="39"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="38"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B71" s="41"/>
       <c r="C71" s="42"/>
       <c r="D71" s="38"/>
@@ -4685,9 +4624,8 @@
       <c r="H71" s="38"/>
       <c r="I71" s="39"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="38"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
       <c r="D72" s="38"/>
@@ -4697,9 +4635,8 @@
       <c r="H72" s="38"/>
       <c r="I72" s="39"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="38"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
       <c r="D73" s="38"/>
@@ -4709,9 +4646,8 @@
       <c r="H73" s="38"/>
       <c r="I73" s="39"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="38"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B74" s="41"/>
       <c r="C74" s="42"/>
       <c r="D74" s="38"/>
@@ -4721,9 +4657,8 @@
       <c r="H74" s="38"/>
       <c r="I74" s="39"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="38"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B75" s="41"/>
       <c r="C75" s="42"/>
       <c r="D75" s="38"/>
@@ -4733,9 +4668,8 @@
       <c r="H75" s="38"/>
       <c r="I75" s="39"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="38"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B76" s="41"/>
       <c r="C76" s="42"/>
       <c r="D76" s="38"/>
@@ -4745,9 +4679,8 @@
       <c r="H76" s="38"/>
       <c r="I76" s="39"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="38"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B77" s="41"/>
       <c r="C77" s="42"/>
       <c r="D77" s="38"/>
@@ -4757,9 +4690,8 @@
       <c r="H77" s="38"/>
       <c r="I77" s="39"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="38"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B78" s="41"/>
       <c r="C78" s="42"/>
       <c r="D78" s="38"/>
@@ -4769,9 +4701,8 @@
       <c r="H78" s="38"/>
       <c r="I78" s="39"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="38"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B79" s="41"/>
       <c r="C79" s="42"/>
       <c r="D79" s="38"/>
@@ -4781,9 +4712,8 @@
       <c r="H79" s="38"/>
       <c r="I79" s="39"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="38"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B80" s="41"/>
       <c r="C80" s="42"/>
       <c r="D80" s="38"/>
@@ -4793,9 +4723,8 @@
       <c r="H80" s="38"/>
       <c r="I80" s="39"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="38"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B81" s="41"/>
       <c r="C81" s="42"/>
       <c r="D81" s="38"/>
@@ -4805,9 +4734,8 @@
       <c r="H81" s="38"/>
       <c r="I81" s="39"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="38"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B82" s="41"/>
       <c r="C82" s="42"/>
       <c r="D82" s="38"/>
@@ -4817,9 +4745,8 @@
       <c r="H82" s="38"/>
       <c r="I82" s="39"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="38"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B83" s="41"/>
       <c r="C83" s="42"/>
       <c r="D83" s="38"/>
@@ -4829,9 +4756,8 @@
       <c r="H83" s="38"/>
       <c r="I83" s="39"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="38"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B84" s="41"/>
       <c r="C84" s="42"/>
       <c r="D84" s="38"/>
@@ -4841,9 +4767,8 @@
       <c r="H84" s="38"/>
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="38"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B85" s="41"/>
       <c r="C85" s="42"/>
       <c r="D85" s="38"/>
@@ -4853,9 +4778,8 @@
       <c r="H85" s="38"/>
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="38"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B86" s="41"/>
       <c r="C86" s="42"/>
       <c r="D86" s="38"/>
@@ -4865,9 +4789,8 @@
       <c r="H86" s="38"/>
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="38"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B87" s="41"/>
       <c r="C87" s="42"/>
       <c r="D87" s="38"/>
@@ -4877,9 +4800,8 @@
       <c r="H87" s="38"/>
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="38"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B88" s="41"/>
       <c r="C88" s="42"/>
       <c r="D88" s="38"/>
@@ -4889,9 +4811,8 @@
       <c r="H88" s="38"/>
       <c r="I88" s="39"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="38"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B89" s="41"/>
       <c r="C89" s="42"/>
       <c r="D89" s="38"/>
@@ -4901,9 +4822,8 @@
       <c r="H89" s="38"/>
       <c r="I89" s="39"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="38"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B90" s="41"/>
       <c r="C90" s="42"/>
       <c r="D90" s="38"/>
@@ -4913,9 +4833,8 @@
       <c r="H90" s="38"/>
       <c r="I90" s="39"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="38"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B91" s="41"/>
       <c r="C91" s="42"/>
       <c r="D91" s="38"/>
@@ -4925,9 +4844,8 @@
       <c r="H91" s="38"/>
       <c r="I91" s="39"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="38"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B92" s="41"/>
       <c r="C92" s="42"/>
       <c r="D92" s="38"/>
@@ -4937,9 +4855,8 @@
       <c r="H92" s="38"/>
       <c r="I92" s="39"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="38"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B93" s="41"/>
       <c r="C93" s="42"/>
       <c r="D93" s="38"/>
@@ -4949,9 +4866,8 @@
       <c r="H93" s="38"/>
       <c r="I93" s="39"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="38"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B94" s="41"/>
       <c r="C94" s="42"/>
       <c r="D94" s="38"/>
@@ -4961,9 +4877,8 @@
       <c r="H94" s="38"/>
       <c r="I94" s="39"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="38"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B95" s="41"/>
       <c r="C95" s="42"/>
       <c r="D95" s="38"/>
@@ -4973,9 +4888,8 @@
       <c r="H95" s="38"/>
       <c r="I95" s="39"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="38"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B96" s="41"/>
       <c r="C96" s="42"/>
       <c r="D96" s="38"/>
@@ -4985,9 +4899,8 @@
       <c r="H96" s="38"/>
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
-      <c r="K96" s="38"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B97" s="41"/>
       <c r="C97" s="42"/>
       <c r="D97" s="38"/>
@@ -4997,9 +4910,8 @@
       <c r="H97" s="38"/>
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
-      <c r="K97" s="38"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B98" s="41"/>
       <c r="C98" s="42"/>
       <c r="D98" s="38"/>
@@ -5009,9 +4921,8 @@
       <c r="H98" s="38"/>
       <c r="I98" s="39"/>
       <c r="J98" s="40"/>
-      <c r="K98" s="38"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B99" s="41"/>
       <c r="C99" s="42"/>
       <c r="D99" s="38"/>
@@ -5021,9 +4932,8 @@
       <c r="H99" s="38"/>
       <c r="I99" s="39"/>
       <c r="J99" s="40"/>
-      <c r="K99" s="38"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B100" s="41"/>
       <c r="C100" s="42"/>
       <c r="D100" s="38"/>
@@ -5033,9 +4943,8 @@
       <c r="H100" s="38"/>
       <c r="I100" s="39"/>
       <c r="J100" s="40"/>
-      <c r="K100" s="38"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B101" s="41"/>
       <c r="C101" s="42"/>
       <c r="D101" s="38"/>
@@ -5045,9 +4954,8 @@
       <c r="H101" s="38"/>
       <c r="I101" s="39"/>
       <c r="J101" s="40"/>
-      <c r="K101" s="38"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B102" s="41"/>
       <c r="C102" s="42"/>
       <c r="D102" s="38"/>
@@ -5057,9 +4965,8 @@
       <c r="H102" s="38"/>
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
-      <c r="K102" s="38"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B103" s="41"/>
       <c r="C103" s="42"/>
       <c r="D103" s="38"/>
@@ -5069,9 +4976,8 @@
       <c r="H103" s="38"/>
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
-      <c r="K103" s="38"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B104" s="41"/>
       <c r="C104" s="42"/>
       <c r="D104" s="38"/>
@@ -5081,9 +4987,8 @@
       <c r="H104" s="38"/>
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
-      <c r="K104" s="38"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B105" s="41"/>
       <c r="C105" s="42"/>
       <c r="D105" s="38"/>
@@ -5093,9 +4998,8 @@
       <c r="H105" s="38"/>
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
-      <c r="K105" s="38"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B106" s="41"/>
       <c r="C106" s="42"/>
       <c r="D106" s="38"/>
@@ -5105,9 +5009,8 @@
       <c r="H106" s="38"/>
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
-      <c r="K106" s="38"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B107" s="41"/>
       <c r="C107" s="42"/>
       <c r="D107" s="38"/>
@@ -5117,9 +5020,8 @@
       <c r="H107" s="38"/>
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
-      <c r="K107" s="38"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B108" s="41"/>
       <c r="C108" s="42"/>
       <c r="D108" s="38"/>
@@ -5129,9 +5031,8 @@
       <c r="H108" s="38"/>
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
-      <c r="K108" s="38"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B109" s="41"/>
       <c r="C109" s="42"/>
       <c r="D109" s="38"/>
@@ -5141,9 +5042,8 @@
       <c r="H109" s="38"/>
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
-      <c r="K109" s="38"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B110" s="41"/>
       <c r="C110" s="42"/>
       <c r="D110" s="38"/>
@@ -5153,9 +5053,8 @@
       <c r="H110" s="38"/>
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
-      <c r="K110" s="38"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B111" s="41"/>
       <c r="C111" s="42"/>
       <c r="D111" s="38"/>
@@ -5165,9 +5064,8 @@
       <c r="H111" s="38"/>
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
-      <c r="K111" s="38"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B112" s="41"/>
       <c r="C112" s="42"/>
       <c r="D112" s="38"/>
@@ -5177,9 +5075,8 @@
       <c r="H112" s="38"/>
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
-      <c r="K112" s="38"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B113" s="41"/>
       <c r="C113" s="42"/>
       <c r="D113" s="38"/>
@@ -5189,9 +5086,8 @@
       <c r="H113" s="38"/>
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
-      <c r="K113" s="38"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B114" s="41"/>
       <c r="C114" s="42"/>
       <c r="D114" s="38"/>
@@ -5201,9 +5097,8 @@
       <c r="H114" s="38"/>
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
-      <c r="K114" s="38"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B115" s="41"/>
       <c r="C115" s="42"/>
       <c r="D115" s="38"/>
@@ -5213,9 +5108,8 @@
       <c r="H115" s="38"/>
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
-      <c r="K115" s="38"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B116" s="41"/>
       <c r="C116" s="42"/>
       <c r="D116" s="38"/>
@@ -5225,9 +5119,8 @@
       <c r="H116" s="38"/>
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
-      <c r="K116" s="38"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B117" s="41"/>
       <c r="C117" s="42"/>
       <c r="D117" s="38"/>
@@ -5237,9 +5130,8 @@
       <c r="H117" s="38"/>
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
-      <c r="K117" s="38"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B118" s="41"/>
       <c r="C118" s="42"/>
       <c r="D118" s="38"/>
@@ -5249,9 +5141,8 @@
       <c r="H118" s="38"/>
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
-      <c r="K118" s="38"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B119" s="41"/>
       <c r="C119" s="42"/>
       <c r="D119" s="38"/>
@@ -5261,9 +5152,8 @@
       <c r="H119" s="38"/>
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
-      <c r="K119" s="38"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B120" s="41"/>
       <c r="C120" s="42"/>
       <c r="D120" s="38"/>
@@ -5273,9 +5163,8 @@
       <c r="H120" s="38"/>
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
-      <c r="K120" s="38"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B121" s="41"/>
       <c r="C121" s="42"/>
       <c r="D121" s="38"/>
@@ -5285,9 +5174,8 @@
       <c r="H121" s="38"/>
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
-      <c r="K121" s="38"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B122" s="41"/>
       <c r="C122" s="42"/>
       <c r="D122" s="38"/>
@@ -5297,9 +5185,8 @@
       <c r="H122" s="38"/>
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
-      <c r="K122" s="38"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B123" s="41"/>
       <c r="C123" s="42"/>
       <c r="D123" s="38"/>
@@ -5309,9 +5196,8 @@
       <c r="H123" s="38"/>
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
-      <c r="K123" s="38"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B124" s="41"/>
       <c r="C124" s="42"/>
       <c r="D124" s="38"/>
@@ -5321,9 +5207,8 @@
       <c r="H124" s="38"/>
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
-      <c r="K124" s="38"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B125" s="41"/>
       <c r="C125" s="42"/>
       <c r="D125" s="38"/>
@@ -5333,9 +5218,8 @@
       <c r="H125" s="38"/>
       <c r="I125" s="39"/>
       <c r="J125" s="40"/>
-      <c r="K125" s="38"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B126" s="41"/>
       <c r="C126" s="42"/>
       <c r="D126" s="38"/>
@@ -5345,9 +5229,8 @@
       <c r="H126" s="38"/>
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
-      <c r="K126" s="38"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B127" s="41"/>
       <c r="C127" s="42"/>
       <c r="D127" s="38"/>
@@ -5357,9 +5240,8 @@
       <c r="H127" s="38"/>
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
-      <c r="K127" s="38"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B128" s="41"/>
       <c r="C128" s="42"/>
       <c r="D128" s="38"/>
@@ -5369,9 +5251,8 @@
       <c r="H128" s="38"/>
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
-      <c r="K128" s="38"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B129" s="41"/>
       <c r="C129" s="42"/>
       <c r="D129" s="38"/>
@@ -5381,9 +5262,8 @@
       <c r="H129" s="38"/>
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
-      <c r="K129" s="38"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B130" s="41"/>
       <c r="C130" s="42"/>
       <c r="D130" s="38"/>
@@ -5393,9 +5273,8 @@
       <c r="H130" s="38"/>
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
-      <c r="K130" s="38"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B131" s="41"/>
       <c r="C131" s="42"/>
       <c r="D131" s="38"/>
@@ -5405,9 +5284,8 @@
       <c r="H131" s="38"/>
       <c r="I131" s="39"/>
       <c r="J131" s="40"/>
-      <c r="K131" s="38"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B132" s="41"/>
       <c r="C132" s="42"/>
       <c r="D132" s="38"/>
@@ -5417,9 +5295,8 @@
       <c r="H132" s="38"/>
       <c r="I132" s="39"/>
       <c r="J132" s="40"/>
-      <c r="K132" s="38"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B133" s="41"/>
       <c r="C133" s="42"/>
       <c r="D133" s="38"/>
@@ -5429,9 +5306,8 @@
       <c r="H133" s="38"/>
       <c r="I133" s="39"/>
       <c r="J133" s="40"/>
-      <c r="K133" s="38"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B134" s="41"/>
       <c r="C134" s="42"/>
       <c r="D134" s="38"/>
@@ -5441,9 +5317,8 @@
       <c r="H134" s="38"/>
       <c r="I134" s="39"/>
       <c r="J134" s="40"/>
-      <c r="K134" s="38"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B135" s="41"/>
       <c r="C135" s="42"/>
       <c r="D135" s="38"/>
@@ -5453,9 +5328,8 @@
       <c r="H135" s="38"/>
       <c r="I135" s="39"/>
       <c r="J135" s="40"/>
-      <c r="K135" s="38"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B140" s="7"/>
       <c r="E140" s="7"/>
     </row>
@@ -5464,7 +5338,7 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C9:K135">
+  <conditionalFormatting sqref="C9:J135">
     <cfRule type="expression" dxfId="7" priority="5">
       <formula>$B9=3</formula>
     </cfRule>
@@ -5499,14 +5373,14 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右侧单元格将自动更新今日应办" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此单元格将自动更新今日应办" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入说明" sqref="C8:D8" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题的此列中选择责任人姓名。按 Alt+向下键可显现选项，然后按向下键和 Enter 进行选择" sqref="J8:K8" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题的此列中选择责任人姓名。按 Alt+向下键可显现选项，然后按向下键和 Enter 进行选择" sqref="J8" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入大于 1 的值，将任务标记为完成。将自动应用删除线格式" sqref="B8" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="此工作表的标题位于此单元格中。日期将在下方单元格中自动更新，今日应办和逾期天数位于单元格 C3 和 C4 中。提示位于右侧单元格中" sqref="C1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表的标题位于此 C1中。日期将在单元格 B2 中自动更新，今日应办和逾期天数位于单元格 C3 和 C4 中。下一步提示位于下方单元格中。" sqref="B1" xr:uid="{A1419114-EA4B-4682-BE7E-B798760663B5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右侧单元格将自动更新逾期天数" sqref="B5:B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此单元格将自动更新逾期天数。在下表中输入详细信息。表提示位于单元格 A6" sqref="C5:C6" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{254DA3D6-ECB4-4C15-B279-41BA4F74C3F3}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从此列表中选择责任人姓名。选择“取消”，按 Alt+向下键可显现选项，然后按向下键和 Enter 进行选择" sqref="J9:K135" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从此列表中选择责任人姓名。选择“取消”，按 Alt+向下键可显现选项，然后按向下键和 Enter 进行选择" sqref="J9:J135" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>责任人</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入截止日期" sqref="E8:I8" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
@@ -5716,16 +5590,16 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
